--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y339"/>
+  <dimension ref="A1:Y342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
       </c>
       <c r="R338" s="2" t="inlineStr"/>
     </row>
-    <row r="339">
+    <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
           <t>A 38633-2023</t>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21021,6 +21021,192 @@
         <v>0</v>
       </c>
       <c r="R339" s="2" t="inlineStr"/>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>A 42324-2023</t>
+        </is>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>LAXÅ</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" s="2" t="inlineStr"/>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>A 42328-2023</t>
+        </is>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C341" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>LAXÅ</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" s="2" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>A 42326-2023</t>
+        </is>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C342" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>LAXÅ</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>1</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21025,14 +21025,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 42324-2023</t>
+          <t>A 42326-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -21087,14 +21087,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 42328-2023</t>
+          <t>A 42324-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -21149,14 +21149,14 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 42326-2023</t>
+          <t>A 42328-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,31 +626,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 26879-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 26879-2021.xlsx", "A 26879-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 26879-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 26879-2021.png", "A 26879-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/knärot/A 26879-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/knärot/A 26879-2021.png", "A 26879-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 26879-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 26879-2021.docx", "A 26879-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 26879-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 26879-2021.docx", "A 26879-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 26879-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 26879-2021.docx", "A 26879-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 26879-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 26879-2021.docx", "A 26879-2021")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 4002-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 4002-2019.xlsx", "A 4002-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 4002-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 4002-2019.png", "A 4002-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 4002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 4002-2019.docx", "A 4002-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 4002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 4002-2019.docx", "A 4002-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 4002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 4002-2019.docx", "A 4002-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 4002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 4002-2019.docx", "A 4002-2019")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 11018-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 11018-2022.xlsx", "A 11018-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 11018-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 11018-2022.png", "A 11018-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 11018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 11018-2022.docx", "A 11018-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 11018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 11018-2022.docx", "A 11018-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 11018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 11018-2022.docx", "A 11018-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 11018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 11018-2022.docx", "A 11018-2022")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 48244-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 48244-2019.xlsx", "A 48244-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 48244-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 48244-2019.png", "A 48244-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 48244-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 48244-2019.docx", "A 48244-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 48244-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 48244-2019.docx", "A 48244-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 48244-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 48244-2019.docx", "A 48244-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 48244-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 48244-2019.docx", "A 48244-2019")</f>
         <v/>
       </c>
     </row>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,27 +977,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 20507-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 20507-2020.xlsx", "A 20507-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 20507-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 20507-2020.png", "A 20507-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 20507-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 20507-2020.docx", "A 20507-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 20507-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 20507-2020.docx", "A 20507-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 20507-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 20507-2020.docx", "A 20507-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 20507-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 20507-2020.docx", "A 20507-2020")</f>
         <v/>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1062,27 +1062,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 43742-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 43742-2022.xlsx", "A 43742-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 43742-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 43742-2022.png", "A 43742-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 43742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 43742-2022.docx", "A 43742-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 43742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 43742-2022.docx", "A 43742-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 43742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 43742-2022.docx", "A 43742-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 43742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 43742-2022.docx", "A 43742-2022")</f>
         <v/>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 50580-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 50580-2022.xlsx", "A 50580-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 50580-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 50580-2022.png", "A 50580-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 50580-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 50580-2022.docx", "A 50580-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 50580-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 50580-2022.docx", "A 50580-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 50580-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 50580-2022.docx", "A 50580-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 50580-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 50580-2022.docx", "A 50580-2022")</f>
         <v/>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1237,27 +1237,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 54301-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 54301-2022.xlsx", "A 54301-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 54301-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 54301-2022.png", "A 54301-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 54301-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 54301-2022.docx", "A 54301-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 54301-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 54301-2022.docx", "A 54301-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 54301-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 54301-2022.docx", "A 54301-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 54301-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 54301-2022.docx", "A 54301-2022")</f>
         <v/>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1327,27 +1327,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 58976-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 58976-2022.xlsx", "A 58976-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 58976-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 58976-2022.png", "A 58976-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 58976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 58976-2022.docx", "A 58976-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 58976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 58976-2022.docx", "A 58976-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 58976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 58976-2022.docx", "A 58976-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 58976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 58976-2022.docx", "A 58976-2022")</f>
         <v/>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,27 +1412,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 35540-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/artfynd/A 35540-2023.xlsx", "A 35540-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 35540-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/kartor/A 35540-2023.png", "A 35540-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 35540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomål/A 35540-2023.docx", "A 35540-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 35540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/klagomålsmail/A 35540-2023.docx", "A 35540-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 35540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsyn/A 35540-2023.docx", "A 35540-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 35540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAXA/tillsynsmail/A 35540-2023.docx", "A 35540-2023")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44349</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43726</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44837</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44861</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43396</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>43398</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43431</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43432</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>43475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>43477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43477</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43480</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>43482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43522</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43528</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43531</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43549</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43549</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43696</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43732</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43740</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43740</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43740</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43755</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43756</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43756</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43756</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43760</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43760</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43766</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>43770</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43770</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43775</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43782</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43797</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>43827</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43902</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43923</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43948</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43948</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43980</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43983</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>43983</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43983</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44009</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44015</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44021</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44032</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44039</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44039</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44050</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44073</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44082</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44082</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44088</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44099</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44102</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44103</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44112</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44117</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44129</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44130</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44133</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44134</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>44139</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44151</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44182</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44182</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44182</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44182</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>44182</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44182</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44182</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44182</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44182</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44182</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44182</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44182</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44182</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44182</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44182</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44182</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44182</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44182</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44182</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44182</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44182</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44182</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44182</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44182</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44182</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44182</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44182</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44182</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>44182</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>44182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>44183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>44183</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44183</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44223</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44286</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44309</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44322</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44328</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44328</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44328</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44328</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44336</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44341</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44363</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44378</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>44379</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44379</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44379</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44379</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44382</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44393</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44426</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44426</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44426</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44427</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44449</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44456</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44456</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44459</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44475</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44483</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44484</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44484</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44494</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44494</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44496</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44503</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44503</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44503</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44522</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>44528</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>44530</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44536</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44571</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44571</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44571</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44571</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44571</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44596</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44608</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44614</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>44621</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44662</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44671</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44746</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44746</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44748</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>44792</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>44792</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44795</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44797</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44801</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44802</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44803</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44803</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44803</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44805</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44805</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44813</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>44813</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44813</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44813</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44813</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44837</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44841</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>44867</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44882</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44882</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44882</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44886</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44896</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44897</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44957</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44957</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44979</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44987</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44988</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44988</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44993</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44993</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44998</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45042</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45042</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45042</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45042</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45048</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45048</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45048</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45056</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45062</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45062</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45092</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45119</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45126</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45126</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45126</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45155</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45180</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
